--- a/Jogos_da_Semana_FlashScore_2025-06-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-09.xlsx
@@ -571,37 +571,37 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
     </row>
@@ -636,33 +636,87 @@
           <t>Patriotas</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="T2" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>21</v>
+      </c>
+      <c r="W2" t="n">
+        <v>40</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>55</v>
+      </c>
       <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -880,25 +934,25 @@
         <v>90</v>
       </c>
       <c r="AB5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH5" t="n">
         <v>800</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-09.xlsx
@@ -871,70 +871,70 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="L5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="N5" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="O5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="S5" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="T5" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U5" t="n">
         <v>20</v>
       </c>
       <c r="V5" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="W5" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="X5" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AC5" t="n">
         <v>17.5</v>
@@ -949,10 +949,10 @@
         <v>37</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AH5" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-09.xlsx
@@ -637,61 +637,61 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="H2" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="I2" t="n">
-        <v>3.65</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="K2" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="L2" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="M2" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="N2" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="O2" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="Q2" t="n">
         <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="S2" t="n">
-        <v>8.75</v>
+        <v>11.75</v>
       </c>
       <c r="T2" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="U2" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="V2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="W2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X2" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z2" t="n">
         <v>18</v>
@@ -700,22 +700,22 @@
         <v>120</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AF2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH2" t="inlineStr"/>
     </row>
@@ -871,85 +871,85 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.12</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
         <v>1.42</v>
       </c>
       <c r="K5" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="N5" t="n">
         <v>1.47</v>
       </c>
       <c r="O5" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="S5" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="T5" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="V5" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="W5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>17.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="n">
         <v>900</v>
